--- a/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2012 Promos  (PDP12).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2012 Promos  (PDP12).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,126 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Frost Titan</t>
+          <t>('Frost Titan', ['{4}{U}{U}', 'Creature — Giant', 'Whenever Frost Titan becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {2}.', 'Whenever Frost Titan enters the battlefield or attacks, tap target permanent. It doesn’t untap during its controller’s next untap step.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{U}{U}</t>
+          <t>('Grave Titan', ['{4}{B}{B}', 'Creature — Giant', 'Deathtouch', 'Whenever Grave Titan enters the battlefield or attacks, create two 2/2 black Zombie creature tokens.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Whenever Frost Titan becomes the target of a spell or ability an opponent controls, counter that spell or ability unless its controller pays {2}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Whenever Frost Titan enters the battlefield or attacks, tap target permanent. It doesn’t untap during its controller’s next untap step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Grave Titan</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Creature — Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Deathtouch</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Whenever Grave Titan enters the battlefield or attacks, create two 2/2 black Zombie creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Inferno Titan</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Creature — Giant</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{R}: Inferno Titan gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Whenever Inferno Titan enters the battlefield or attacks, it deals 3 damage divided as you choose among one, two, or three targets.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Inferno Titan', ['{4}{R}{R}', 'Creature — Giant', '{R}: Inferno Titan gets +1/+0 until end of turn.', 'Whenever Inferno Titan enters the battlefield or attacks, it deals 3 damage divided as you choose among one, two, or three targets.', '6/6'])</t>
         </is>
       </c>
     </row>
